--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H2">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I2">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J2">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>800.1165987133199</v>
+        <v>342.8688853305034</v>
       </c>
       <c r="R2">
-        <v>7201.04938841988</v>
+        <v>3085.81996797453</v>
       </c>
       <c r="S2">
-        <v>0.6133921076182713</v>
+        <v>0.5230097451996106</v>
       </c>
       <c r="T2">
-        <v>0.6133921076182713</v>
+        <v>0.5230097451996106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H3">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I3">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J3">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>76.86105110049331</v>
+        <v>47.76419830749201</v>
       </c>
       <c r="R3">
-        <v>691.7494599044398</v>
+        <v>429.8777847674281</v>
       </c>
       <c r="S3">
-        <v>0.05892386460186354</v>
+        <v>0.07285916644896159</v>
       </c>
       <c r="T3">
-        <v>0.05892386460186354</v>
+        <v>0.07285916644896159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H4">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I4">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J4">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>370.7788932280922</v>
+        <v>204.8164662401483</v>
       </c>
       <c r="R4">
-        <v>3337.01003905283</v>
+        <v>1843.348196161335</v>
       </c>
       <c r="S4">
-        <v>0.2842496295456035</v>
+        <v>0.3124255725849458</v>
       </c>
       <c r="T4">
-        <v>0.2842496295456035</v>
+        <v>0.3124255725849459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.244721</v>
       </c>
       <c r="I5">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J5">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>23.196725112564</v>
+        <v>15.99577541773666</v>
       </c>
       <c r="R5">
-        <v>208.770526013076</v>
+        <v>143.96197875963</v>
       </c>
       <c r="S5">
-        <v>0.01778326825055085</v>
+        <v>0.02439984140712103</v>
       </c>
       <c r="T5">
-        <v>0.01778326825055085</v>
+        <v>0.02439984140712103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.244721</v>
       </c>
       <c r="I6">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J6">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
         <v>2.228331067132</v>
@@ -818,10 +818,10 @@
         <v>20.054979604188</v>
       </c>
       <c r="S6">
-        <v>0.00170830187992276</v>
+        <v>0.00339908027092536</v>
       </c>
       <c r="T6">
-        <v>0.00170830187992276</v>
+        <v>0.003399080270925362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.244721</v>
       </c>
       <c r="I7">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J7">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>10.74950335686567</v>
+        <v>9.555250814531666</v>
       </c>
       <c r="R7">
-        <v>96.74553021179099</v>
+        <v>85.997257330785</v>
       </c>
       <c r="S7">
-        <v>0.008240874555684612</v>
+        <v>0.01457551124538269</v>
       </c>
       <c r="T7">
-        <v>0.008240874555684612</v>
+        <v>0.01457551124538269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H8">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I8">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J8">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>13.133854743336</v>
+        <v>18.62181669067111</v>
       </c>
       <c r="R8">
-        <v>118.204692690024</v>
+        <v>167.59635021604</v>
       </c>
       <c r="S8">
-        <v>0.01006878604333719</v>
+        <v>0.02840558598122315</v>
       </c>
       <c r="T8">
-        <v>0.01006878604333719</v>
+        <v>0.02840558598122315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H9">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I9">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J9">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>1.261668464568</v>
+        <v>2.594158243322667</v>
       </c>
       <c r="R9">
-        <v>11.355016181112</v>
+        <v>23.347424189904</v>
       </c>
       <c r="S9">
-        <v>0.0009672308759015755</v>
+        <v>0.003957110428786267</v>
       </c>
       <c r="T9">
-        <v>0.0009672308759015755</v>
+        <v>0.003957110428786268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H10">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I10">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J10">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>6.086308087326</v>
+        <v>11.12394519519778</v>
       </c>
       <c r="R10">
-        <v>54.776772785934</v>
+        <v>100.11550675678</v>
       </c>
       <c r="S10">
-        <v>0.004665936628864584</v>
+        <v>0.01696838643304339</v>
       </c>
       <c r="T10">
-        <v>0.004665936628864584</v>
+        <v>0.01696838643304339</v>
       </c>
     </row>
   </sheetData>
